--- a/TemplateHQ.xlsx
+++ b/TemplateHQ.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="120" windowWidth="19200" windowHeight="8265" tabRatio="818" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="120" windowWidth="19200" windowHeight="8265" tabRatio="818"/>
   </bookViews>
   <sheets>
     <sheet name="Declaration list" sheetId="9" r:id="rId1"/>
@@ -77,7 +77,6 @@
     <definedName name="States">'Declaration list'!$E$3:$E$7</definedName>
   </definedNames>
   <calcPr calcId="124519"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
@@ -2863,7 +2862,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3230" uniqueCount="1420">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3232" uniqueCount="1422">
   <si>
     <t>BẢN KHAI HÀNG HÓA</t>
   </si>
@@ -9983,6 +9982,12 @@
   <si>
     <t>Nguyen Hoang Vu</t>
   </si>
+  <si>
+    <t>CN04</t>
+  </si>
+  <si>
+    <t>Ket noi du lieu</t>
+  </si>
 </sst>
 </file>
 
@@ -9997,7 +10002,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -20263,31 +20268,31 @@
   </sheetPr>
   <dimension ref="A1:S246"/>
   <sheetViews>
-    <sheetView topLeftCell="L3" workbookViewId="0">
-      <selection activeCell="R3" sqref="R3:R33"/>
+    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="M7" sqref="M7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="111.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.85546875" style="1" customWidth="1"/>
-    <col min="3" max="4" width="16.42578125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="111.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.875" style="1" customWidth="1"/>
+    <col min="3" max="4" width="16.375" style="1" customWidth="1"/>
     <col min="5" max="5" width="16" style="1" customWidth="1"/>
     <col min="6" max="6" width="43" style="1" customWidth="1"/>
-    <col min="7" max="7" width="15.140625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="50.28515625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="24.5703125" style="1" customWidth="1"/>
-    <col min="10" max="10" width="24.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="27.5703125" style="1" customWidth="1"/>
-    <col min="12" max="12" width="26.140625" style="1" customWidth="1"/>
-    <col min="13" max="13" width="33.140625" style="1" customWidth="1"/>
-    <col min="14" max="14" width="18.85546875" style="1" customWidth="1"/>
-    <col min="15" max="15" width="28.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="33.42578125" style="1" customWidth="1"/>
-    <col min="17" max="17" width="15.140625" style="1" customWidth="1"/>
-    <col min="18" max="18" width="37.85546875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="15.125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="50.25" style="1" customWidth="1"/>
+    <col min="9" max="9" width="24.625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="24.75" style="1" customWidth="1"/>
+    <col min="11" max="11" width="27.625" style="1" customWidth="1"/>
+    <col min="12" max="12" width="26.125" style="1" customWidth="1"/>
+    <col min="13" max="13" width="33.125" style="1" customWidth="1"/>
+    <col min="14" max="14" width="18.875" style="1" customWidth="1"/>
+    <col min="15" max="15" width="28.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="33.375" style="1" customWidth="1"/>
+    <col min="17" max="17" width="15.125" style="1" customWidth="1"/>
+    <col min="18" max="18" width="37.875" style="1" customWidth="1"/>
     <col min="19" max="19" width="21" style="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="20" max="16384" width="9.125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="31.5" customHeight="1">
@@ -20606,6 +20611,12 @@
       <c r="K7" s="37" t="s">
         <v>692</v>
       </c>
+      <c r="L7" s="87" t="s">
+        <v>1420</v>
+      </c>
+      <c r="M7" s="87" t="s">
+        <v>1421</v>
+      </c>
       <c r="N7" s="59" t="s">
         <v>858</v>
       </c>
@@ -20851,7 +20862,7 @@
         <v>1011</v>
       </c>
     </row>
-    <row r="14" spans="1:19" ht="31.5">
+    <row r="14" spans="1:19">
       <c r="E14" s="35" t="s">
         <v>135</v>
       </c>
@@ -20994,7 +21005,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="18" spans="1:18" ht="31.5">
+    <row r="18" spans="1:18">
       <c r="A18" s="35" t="s">
         <v>35</v>
       </c>
@@ -21210,7 +21221,7 @@
         <v>1021</v>
       </c>
     </row>
-    <row r="24" spans="1:18" ht="31.5">
+    <row r="24" spans="1:18">
       <c r="E24" s="35" t="s">
         <v>155</v>
       </c>
@@ -21242,7 +21253,7 @@
         <v>1022</v>
       </c>
     </row>
-    <row r="25" spans="1:18" ht="31.5">
+    <row r="25" spans="1:18">
       <c r="A25" s="125" t="s">
         <v>1207</v>
       </c>
@@ -21465,7 +21476,7 @@
         <v>1029</v>
       </c>
     </row>
-    <row r="32" spans="1:18" ht="31.5">
+    <row r="32" spans="1:18">
       <c r="E32" s="35" t="s">
         <v>171</v>
       </c>
@@ -24069,13 +24080,13 @@
       <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="30.85546875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="39.85546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="37.5703125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="28.140625" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="30.875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="39.875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="37.625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="28.125" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="9.125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
@@ -25662,13 +25673,13 @@
       <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="46.5703125" customWidth="1"/>
-    <col min="2" max="2" width="48.7109375" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" customWidth="1"/>
+    <col min="1" max="1" width="46.625" customWidth="1"/>
+    <col min="2" max="2" width="48.75" customWidth="1"/>
+    <col min="3" max="3" width="12.75" customWidth="1"/>
     <col min="4" max="4" width="17" customWidth="1"/>
-    <col min="5" max="5" width="17.140625" customWidth="1"/>
+    <col min="5" max="5" width="17.125" customWidth="1"/>
     <col min="6" max="6" width="18" customWidth="1"/>
   </cols>
   <sheetData>
@@ -25702,7 +25713,7 @@
       </c>
       <c r="C4" s="3"/>
     </row>
-    <row r="5" spans="1:3" ht="47.25">
+    <row r="5" spans="1:3" ht="31.5">
       <c r="A5" s="16" t="s">
         <v>836</v>
       </c>
@@ -25837,7 +25848,7 @@
       </c>
       <c r="C18" s="87"/>
     </row>
-    <row r="19" spans="1:6" ht="16.5" thickTop="1" thickBot="1"/>
+    <row r="19" spans="1:6" ht="15.75" thickTop="1" thickBot="1"/>
     <row r="20" spans="1:6" ht="32.25" thickTop="1">
       <c r="A20" s="13" t="s">
         <v>1234</v>
@@ -26050,12 +26061,12 @@
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="46.42578125" customWidth="1"/>
-    <col min="2" max="2" width="40.140625" customWidth="1"/>
-    <col min="3" max="3" width="24.85546875" customWidth="1"/>
-    <col min="4" max="4" width="21.140625" customWidth="1"/>
+    <col min="1" max="1" width="46.375" customWidth="1"/>
+    <col min="2" max="2" width="40.125" customWidth="1"/>
+    <col min="3" max="3" width="24.875" customWidth="1"/>
+    <col min="4" max="4" width="21.125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="15.75">
@@ -26139,7 +26150,7 @@
       </c>
       <c r="C9" s="87"/>
     </row>
-    <row r="10" spans="1:3" ht="78.75">
+    <row r="10" spans="1:3" ht="63">
       <c r="A10" s="158" t="s">
         <v>1247</v>
       </c>
@@ -26197,10 +26208,10 @@
       <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="35.28515625" customWidth="1"/>
-    <col min="2" max="2" width="33.7109375" customWidth="1"/>
+    <col min="1" max="1" width="35.25" customWidth="1"/>
+    <col min="2" max="2" width="33.75" customWidth="1"/>
     <col min="3" max="3" width="31" customWidth="1"/>
   </cols>
   <sheetData>
@@ -26312,16 +26323,16 @@
       <selection activeCell="D39" sqref="D39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="49" customWidth="1"/>
-    <col min="2" max="2" width="27.5703125" customWidth="1"/>
-    <col min="3" max="3" width="20.140625" customWidth="1"/>
-    <col min="4" max="4" width="20.5703125" customWidth="1"/>
-    <col min="5" max="5" width="21.42578125" customWidth="1"/>
-    <col min="6" max="6" width="13.7109375" customWidth="1"/>
-    <col min="7" max="7" width="16.7109375" customWidth="1"/>
-    <col min="8" max="8" width="13.7109375" customWidth="1"/>
+    <col min="2" max="2" width="27.625" customWidth="1"/>
+    <col min="3" max="3" width="20.125" customWidth="1"/>
+    <col min="4" max="4" width="20.625" customWidth="1"/>
+    <col min="5" max="5" width="21.375" customWidth="1"/>
+    <col min="6" max="6" width="13.75" customWidth="1"/>
+    <col min="7" max="7" width="16.75" customWidth="1"/>
+    <col min="8" max="8" width="13.75" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="15.75">
@@ -26387,7 +26398,7 @@
       </c>
       <c r="C7" s="87"/>
     </row>
-    <row r="8" spans="1:3" ht="63">
+    <row r="8" spans="1:3" ht="47.25">
       <c r="A8" s="158" t="s">
         <v>1254</v>
       </c>
@@ -26421,7 +26432,7 @@
         <v>1043</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="63">
+    <row r="12" spans="1:3" ht="47.25">
       <c r="A12" s="158" t="s">
         <v>1259</v>
       </c>
@@ -26457,7 +26468,7 @@
         <v>1263</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="94.5">
+    <row r="16" spans="1:3" ht="63">
       <c r="A16" s="158" t="s">
         <v>1264</v>
       </c>
@@ -26537,7 +26548,7 @@
         <v>1043</v>
       </c>
     </row>
-    <row r="26" spans="1:2" ht="78.75">
+    <row r="26" spans="1:2" ht="63">
       <c r="A26" s="158" t="s">
         <v>1275</v>
       </c>
@@ -26569,7 +26580,7 @@
         <v>1218</v>
       </c>
     </row>
-    <row r="30" spans="1:2" ht="47.25">
+    <row r="30" spans="1:2" ht="31.5">
       <c r="A30" s="158" t="s">
         <v>1279</v>
       </c>
@@ -26577,8 +26588,8 @@
         <v>1043</v>
       </c>
     </row>
-    <row r="32" spans="1:2" ht="15.75" thickBot="1"/>
-    <row r="33" spans="1:8" ht="63.75" thickTop="1">
+    <row r="32" spans="1:2" ht="15" thickBot="1"/>
+    <row r="33" spans="1:8" ht="32.25" thickTop="1">
       <c r="A33" s="13" t="s">
         <v>1280</v>
       </c>
@@ -26673,8 +26684,8 @@
         <v>1245</v>
       </c>
     </row>
-    <row r="37" spans="1:8" ht="15.75" thickBot="1"/>
-    <row r="38" spans="1:8" ht="95.25" thickTop="1">
+    <row r="37" spans="1:8" ht="15" thickBot="1"/>
+    <row r="38" spans="1:8" ht="79.5" thickTop="1">
       <c r="A38" s="13" t="s">
         <v>1280</v>
       </c>
@@ -26767,20 +26778,20 @@
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="16.140625" style="114" customWidth="1"/>
-    <col min="2" max="2" width="20.28515625" style="113" customWidth="1"/>
-    <col min="3" max="3" width="35.42578125" style="113" customWidth="1"/>
-    <col min="4" max="4" width="13.140625" style="113" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21.42578125" style="113" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" style="113" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="113" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.42578125" style="113" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.7109375" style="112" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.28515625" style="112" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.140625" style="112" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="112"/>
+    <col min="1" max="1" width="16.125" style="114" customWidth="1"/>
+    <col min="2" max="2" width="20.25" style="113" customWidth="1"/>
+    <col min="3" max="3" width="35.375" style="113" customWidth="1"/>
+    <col min="4" max="4" width="13.125" style="113" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.375" style="113" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.25" style="113" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.875" style="113" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.375" style="113" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.75" style="112" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.25" style="112" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.125" style="112" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="9.125" style="112"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="14.25" customHeight="1">
@@ -30052,28 +30063,28 @@
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="27.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="28.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="21.42578125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="15.140625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="27.25" style="1" customWidth="1"/>
+    <col min="2" max="2" width="28.625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="21.375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="15.125" style="1" customWidth="1"/>
     <col min="5" max="5" width="14" style="1" customWidth="1"/>
-    <col min="6" max="6" width="9.140625" style="1"/>
+    <col min="6" max="6" width="9.125" style="1"/>
     <col min="7" max="7" width="11" style="1" customWidth="1"/>
-    <col min="8" max="8" width="12.85546875" style="1" customWidth="1"/>
-    <col min="9" max="9" width="10.7109375" style="1" customWidth="1"/>
-    <col min="10" max="11" width="9.140625" style="1"/>
-    <col min="12" max="12" width="12.42578125" style="1" customWidth="1"/>
-    <col min="13" max="13" width="12.85546875" style="1" customWidth="1"/>
-    <col min="14" max="14" width="16.28515625" style="1" customWidth="1"/>
-    <col min="15" max="15" width="18.5703125" style="1" customWidth="1"/>
-    <col min="16" max="18" width="17.140625" style="87" customWidth="1"/>
-    <col min="19" max="19" width="19.140625" style="87" customWidth="1"/>
-    <col min="20" max="20" width="20.28515625" style="87" customWidth="1"/>
-    <col min="21" max="21" width="20.85546875" style="87" customWidth="1"/>
-    <col min="22" max="22" width="16.42578125" style="1" customWidth="1"/>
-    <col min="23" max="16384" width="9.140625" style="1"/>
+    <col min="8" max="8" width="12.875" style="1" customWidth="1"/>
+    <col min="9" max="9" width="10.75" style="1" customWidth="1"/>
+    <col min="10" max="11" width="9.125" style="1"/>
+    <col min="12" max="12" width="12.375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="12.875" style="1" customWidth="1"/>
+    <col min="14" max="14" width="16.25" style="1" customWidth="1"/>
+    <col min="15" max="15" width="18.625" style="1" customWidth="1"/>
+    <col min="16" max="18" width="17.125" style="87" customWidth="1"/>
+    <col min="19" max="19" width="19.125" style="87" customWidth="1"/>
+    <col min="20" max="20" width="20.25" style="87" customWidth="1"/>
+    <col min="21" max="21" width="20.875" style="87" customWidth="1"/>
+    <col min="22" max="22" width="16.375" style="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:22">
@@ -30213,7 +30224,7 @@
       <c r="U7" s="120"/>
       <c r="V7" s="120"/>
     </row>
-    <row r="8" spans="1:22" ht="94.5">
+    <row r="8" spans="1:22" ht="78.75">
       <c r="A8" s="48" t="s">
         <v>837</v>
       </c>
@@ -45004,14 +45015,14 @@
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="32.85546875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="34.28515625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="31.42578125" style="95" customWidth="1"/>
-    <col min="4" max="4" width="24.28515625" style="101" customWidth="1"/>
-    <col min="5" max="6" width="24.28515625" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="32.875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="34.25" style="1" customWidth="1"/>
+    <col min="3" max="3" width="31.375" style="95" customWidth="1"/>
+    <col min="4" max="4" width="24.25" style="101" customWidth="1"/>
+    <col min="5" max="6" width="24.25" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="9.125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
@@ -45172,7 +45183,7 @@
       <c r="I10" s="3"/>
       <c r="J10" s="3"/>
     </row>
-    <row r="11" spans="1:13" ht="47.25">
+    <row r="11" spans="1:13" ht="31.5">
       <c r="A11" s="16" t="s">
         <v>1184</v>
       </c>
@@ -45219,7 +45230,7 @@
       <c r="I13" s="3"/>
       <c r="J13" s="3"/>
     </row>
-    <row r="14" spans="1:13" ht="47.25">
+    <row r="14" spans="1:13" ht="31.5">
       <c r="A14" s="16" t="s">
         <v>1185</v>
       </c>
@@ -45233,7 +45244,7 @@
       <c r="I14" s="3"/>
       <c r="J14" s="3"/>
     </row>
-    <row r="15" spans="1:13" ht="47.25">
+    <row r="15" spans="1:13" ht="31.5">
       <c r="A15" s="16" t="s">
         <v>1186</v>
       </c>
@@ -45271,7 +45282,7 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
     </row>
-    <row r="17" spans="1:10" ht="47.25">
+    <row r="17" spans="1:10" ht="31.5">
       <c r="A17" s="16" t="s">
         <v>1188</v>
       </c>
@@ -47472,16 +47483,16 @@
   </sheetPr>
   <dimension ref="A1:M27"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView topLeftCell="A10" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="48.85546875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="48.7109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="40.140625" style="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="48.875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="48.75" style="1" customWidth="1"/>
+    <col min="3" max="3" width="40.125" style="1" customWidth="1"/>
+    <col min="4" max="16384" width="9.125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
@@ -47726,17 +47737,17 @@
       <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="28.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="26.85546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="37.28515625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="17.28515625" style="23" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="22.42578125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="18.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.7109375" style="23" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="28.75" style="1" customWidth="1"/>
+    <col min="2" max="2" width="26.875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="37.25" style="1" customWidth="1"/>
+    <col min="4" max="4" width="17.25" style="23" customWidth="1"/>
+    <col min="5" max="5" width="14.875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="22.375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="18.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.75" style="23" customWidth="1"/>
+    <col min="9" max="16384" width="9.125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="15.75" customHeight="1">
@@ -48240,12 +48251,12 @@
       <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="2" width="35.7109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="32.5703125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="15.42578125" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="2" width="35.75" style="1" customWidth="1"/>
+    <col min="3" max="3" width="32.625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="15.375" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="9.125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
@@ -48381,7 +48392,7 @@
       </c>
       <c r="D12" s="3"/>
     </row>
-    <row r="13" spans="1:13" ht="31.5">
+    <row r="13" spans="1:13">
       <c r="A13" s="68" t="s">
         <v>1317</v>
       </c>
@@ -48524,12 +48535,12 @@
       <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="38.42578125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="43.85546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="25.5703125" style="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="38.375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="43.875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="25.625" style="1" customWidth="1"/>
+    <col min="4" max="16384" width="9.125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
@@ -49110,19 +49121,19 @@
       <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="36.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="36.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="29.85546875" style="23" customWidth="1"/>
-    <col min="4" max="4" width="13.140625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="22.85546875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.42578125" style="23" customWidth="1"/>
-    <col min="8" max="8" width="11.42578125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="13.5703125" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.85546875" style="1" customWidth="1"/>
-    <col min="11" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="36.75" style="1" customWidth="1"/>
+    <col min="2" max="2" width="36.625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="29.875" style="23" customWidth="1"/>
+    <col min="4" max="4" width="13.125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="22.875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="14.375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.375" style="23" customWidth="1"/>
+    <col min="8" max="8" width="11.375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="13.625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.875" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="9.125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
@@ -49557,16 +49568,16 @@
       <selection activeCell="N13" sqref="N13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="30.85546875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="27.28515625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="37.5703125" style="1" customWidth="1"/>
-    <col min="4" max="9" width="9.140625" style="1"/>
-    <col min="10" max="10" width="9.85546875" style="1" customWidth="1"/>
-    <col min="11" max="11" width="11.28515625" style="1" customWidth="1"/>
-    <col min="12" max="12" width="10.7109375" style="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="30.875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="27.25" style="1" customWidth="1"/>
+    <col min="3" max="3" width="37.625" style="1" customWidth="1"/>
+    <col min="4" max="9" width="9.125" style="1"/>
+    <col min="10" max="10" width="9.875" style="1" customWidth="1"/>
+    <col min="11" max="11" width="11.25" style="1" customWidth="1"/>
+    <col min="12" max="12" width="10.75" style="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14">
@@ -49674,7 +49685,7 @@
       <c r="B9" s="78"/>
     </row>
     <row r="10" spans="1:14" ht="17.25" thickTop="1" thickBot="1"/>
-    <row r="11" spans="1:14" ht="96" thickTop="1" thickBot="1">
+    <row r="11" spans="1:14" ht="80.25" thickTop="1" thickBot="1">
       <c r="A11" s="13" t="s">
         <v>1195</v>
       </c>
@@ -49718,7 +49729,7 @@
         <v>1205</v>
       </c>
     </row>
-    <row r="12" spans="1:14" ht="48" thickTop="1">
+    <row r="12" spans="1:14" ht="32.25" thickTop="1">
       <c r="A12" s="79" t="s">
         <v>1363</v>
       </c>
@@ -49850,7 +49861,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:14" ht="47.25">
+    <row r="15" spans="1:14" ht="31.5">
       <c r="A15" s="79" t="s">
         <v>1385</v>
       </c>
